--- a/template.xlsx
+++ b/template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\cpeMiniLLMLevenshtein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9CB31E-5C58-4A92-AF4F-77F82965582A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8501E68E-079A-42DD-A7E6-C137B69A0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>Vendor</t>
   </si>
@@ -49,6 +50,147 @@
   </si>
   <si>
     <t>2.15</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Fortinet</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>15.8(3)M</t>
+  </si>
+  <si>
+    <t>9.14(2)</t>
+  </si>
+  <si>
+    <t>9.3(7)</t>
+  </si>
+  <si>
+    <t>0.85.0</t>
+  </si>
+  <si>
+    <t>23.10</t>
+  </si>
+  <si>
+    <t>FortiOS</t>
+  </si>
+  <si>
+    <t>7.2.5</t>
+  </si>
+  <si>
+    <t>FortiGate</t>
+  </si>
+  <si>
+    <t>7.0.12</t>
+  </si>
+  <si>
+    <t>FortiManager</t>
+  </si>
+  <si>
+    <t>7.4.0</t>
+  </si>
+  <si>
+    <t>FortiClient</t>
+  </si>
+  <si>
+    <t>7.0.9</t>
+  </si>
+  <si>
+    <t>FortiSwitch</t>
+  </si>
+  <si>
+    <t>7.2.3</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>22H2</t>
+  </si>
+  <si>
+    <t>23H2</t>
+  </si>
+  <si>
+    <t>7.4.1</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>2.31.0</t>
+  </si>
+  <si>
+    <t>1.26.4</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>AnsibleCore</t>
+  </si>
+  <si>
+    <t>2.16.5</t>
+  </si>
+  <si>
+    <t>3.3.0</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise</t>
+  </si>
+  <si>
+    <t>NAPALM Library</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>NumPy</t>
+  </si>
+  <si>
+    <t>RequestsLibrary</t>
+  </si>
+  <si>
+    <t>OpenSSL</t>
+  </si>
+  <si>
+    <t>PowerShell Core</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>Windows Server 2019 Standard</t>
+  </si>
+  <si>
+    <t>pyATS</t>
+  </si>
+  <si>
+    <t>NX-OS</t>
+  </si>
+  <si>
+    <t>ASA Firewall</t>
+  </si>
+  <si>
+    <t>Meraki Dashboard</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>NAPALM</t>
+  </si>
+  <si>
+    <t>Ansible Core</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Windows_10 Enterprise</t>
   </si>
 </sst>
 </file>
@@ -366,14 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
     <col min="5" max="5" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,6 +548,439 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FFB6BF-BABA-48D4-83FB-3503BF4152ED}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="40.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
